--- a/biology/Zoologie/Bowie_blackstar/Bowie_blackstar.xlsx
+++ b/biology/Zoologie/Bowie_blackstar/Bowie_blackstar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie blackstar est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie blackstar est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Morobe en Papouasie-Nouvelle-Guinée[1],[2]. Elle se rencontre vers Wau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Morobe en Papouasie-Nouvelle-Guinée,. Elle se rencontre vers Wau.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,4 mm de long sur 4,0 mm et l'abdomen 4,3 mm de long sur 3,0 mm et la carapace de la femelle paratype mesure 5,8 mm de long et l'abdomen 6,1 mm de long sur 4,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,4 mm de long sur 4,0 mm et l'abdomen 4,3 mm de long sur 3,0 mm et la carapace de la femelle paratype mesure 5,8 mm de long et l'abdomen 6,1 mm de long sur 4,2 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Peter Jäger en 2022.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à Blackstar, la chanson de David Bowie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jäger, 2022 : « Bowie gen. nov., a diverse lineage of ground-dwelling spiders occurring from the Himalayas to Papua New Guinea and northern Australia (Araneae: Ctenidae: Cteninae). » Zootaxa, no 5170(1), p. 1-200.</t>
         </is>
